--- a/openpyxl/作业-原始成绩.xlsx
+++ b/openpyxl/作业-原始成绩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhpon\Desktop\Jser\pyhton-init\openpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D9A351-96D6-4096-948E-BA5B55400C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9CB24F-52B3-40EE-84E4-6414306FD98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="1740" windowWidth="12420" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
